--- a/medicine/Mort/Bibliopégie_anthropodermique/Bibliopégie_anthropodermique.xlsx
+++ b/medicine/Mort/Bibliopégie_anthropodermique/Bibliopégie_anthropodermique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bibliop%C3%A9gie_anthropodermique</t>
+          <t>Bibliopégie_anthropodermique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La bibliopégie anthropodermique est la pratique qui consiste à relier des livres avec de la peau humaine. Demeuré rare et confidentiel tout au long de son histoire, cet usage, qui serait né dans les cercles médicaux européens, est attesté au moins depuis le XVIIIe siècle ; il connaît son plein essor au XIXe siècle avant de perdurer au début du siècle suivant et de disparaître avec la Seconde Guerre mondiale.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bibliop%C3%A9gie_anthropodermique</t>
+          <t>Bibliopégie_anthropodermique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Étymologie et usage du terme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le mot « bibliopégie », formé à partir des termes empruntés au grec ancien βιβλίον / biblíon (« livre ») et πήγνυμι / pḗgnūmi (« réparer, renforcer »)[3], désigne l'art de la reliure[4].
-L'adjectif « anthropodermique », composé du préfixe ἄνθρωπος / ánthrōpos (« être humain ») et du suffixe δέρμα / dérma, (« peau »)[3], signifie, littéralement, « peau humaine ».
-La locution « bibliopégie anthropodermique » ne semble pas avoir été d'usage dans la langue française avant le début du XXIe siècle[Note 1]. Il s'agit sans doute d'un emprunt à l'anglais anthropodermic bibliopegy, attesté au moins depuis les années 1940, en particulier dans les travaux du bibliographe américain Lawrence S. Thompson (en) portant sur la bibliophilie, ou le folklore et les usages historiques de la peau humaine tannée[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le mot « bibliopégie », formé à partir des termes empruntés au grec ancien βιβλίον / biblíon (« livre ») et πήγνυμι / pḗgnūmi (« réparer, renforcer »), désigne l'art de la reliure.
+L'adjectif « anthropodermique », composé du préfixe ἄνθρωπος / ánthrōpos (« être humain ») et du suffixe δέρμα / dérma, (« peau »), signifie, littéralement, « peau humaine ».
+La locution « bibliopégie anthropodermique » ne semble pas avoir été d'usage dans la langue française avant le début du XXIe siècle[Note 1]. Il s'agit sans doute d'un emprunt à l'anglais anthropodermic bibliopegy, attesté au moins depuis les années 1940, en particulier dans les travaux du bibliographe américain Lawrence S. Thompson (en) portant sur la bibliophilie, ou le folklore et les usages historiques de la peau humaine tannée.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bibliop%C3%A9gie_anthropodermique</t>
+          <t>Bibliopégie_anthropodermique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,9 +558,11 @@
           <t>Problème éthique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Un ouvrage de Sade relié en peau humaine a été vendu pour 45 000 euros à Drouot en 2020 lors d'une vente aux enchères[6],[7]. La vente de fragments de corps humain soulève des questions éthiques et juridiques qui ont été débattues dans les médias à l'occasion de cet évènement[8],[9]. Pour des raisons éthiques, l'université d'Harvard a décidé de retirer début 2024 la peau humaine qui reliait l'ouvrage Des Destinées de l'âme humaine, d'Arsène Houssaye, qu'elle possède[10],[11].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un ouvrage de Sade relié en peau humaine a été vendu pour 45 000 euros à Drouot en 2020 lors d'une vente aux enchères,. La vente de fragments de corps humain soulève des questions éthiques et juridiques qui ont été débattues dans les médias à l'occasion de cet évènement,. Pour des raisons éthiques, l'université d'Harvard a décidé de retirer début 2024 la peau humaine qui reliait l'ouvrage Des Destinées de l'âme humaine, d'Arsène Houssaye, qu'elle possède,.
 </t>
         </is>
       </c>
@@ -557,7 +573,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bibliop%C3%A9gie_anthropodermique</t>
+          <t>Bibliopégie_anthropodermique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -575,9 +591,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La peau des condamnés à mort et des indigents dont les corps n'ont pas été réclamés est utilisée pour créer les reliures. Des spécificités peuvent être notées en fonction des pays. Par exemple, la France excelle dans les reliures faites avec des peaux tatouées, comme l'illustre bien l'ouvrage relié avec la peau de Marius Rambert[12],[13].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La peau des condamnés à mort et des indigents dont les corps n'ont pas été réclamés est utilisée pour créer les reliures. Des spécificités peuvent être notées en fonction des pays. Par exemple, la France excelle dans les reliures faites avec des peaux tatouées, comme l'illustre bien l'ouvrage relié avec la peau de Marius Rambert,.
 </t>
         </is>
       </c>
@@ -588,7 +606,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Bibliop%C3%A9gie_anthropodermique</t>
+          <t>Bibliopégie_anthropodermique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -606,16 +624,50 @@
           <t>Authentification</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sur le plan visuel, une reliure en peau humaine ne se distingue pas de tout autre volume relié en cuir[14].
-Trois méthodes principales ont historiquement été utilisées pour tenter d'authentifier les reliures en peau humaine : l'examen visuel (avec ou sans instrument d'optique), l'ADN et la peptide mass fingerprinting (en)[15], abrégé en PMF, qui pourrait se traduire en français par « empreinte peptidique massique ».
-Examen visuel
-ADN
-Peptide mass fingerprinting (PMF)
-Une équipe multidisciplinaire américaine, l’Anthropodermic Book Project, a entrepris depuis 2015 de recenser et de tester les reliures conservées dans les collections institutionnelles et auxquelles une origine humaine est attribuée[16]. La technique retenue pour authentifier les livres est l'empreinte peptidique massique (en) (en anglais, Peptide Mass Fingerprinting, abrégé en PMF)[17]. En date de mai 2019, sur les 50 volumes potentiels identifiés par l'équipe du projet, 31 ont été testés : 18 d'entre eux se sont révélés être effectivement recouverts de cuir humain[16].
-Reliures en peau humaine authentifiées par PMF
-Reliures reconnues fausses par PMF</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sur le plan visuel, une reliure en peau humaine ne se distingue pas de tout autre volume relié en cuir.
+Trois méthodes principales ont historiquement été utilisées pour tenter d'authentifier les reliures en peau humaine : l'examen visuel (avec ou sans instrument d'optique), l'ADN et la peptide mass fingerprinting (en), abrégé en PMF, qui pourrait se traduire en français par « empreinte peptidique massique ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Bibliopégie_anthropodermique</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Bibliop%C3%A9gie_anthropodermique</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Authentification</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Peptide mass fingerprinting (PMF)</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Une équipe multidisciplinaire américaine, l’Anthropodermic Book Project, a entrepris depuis 2015 de recenser et de tester les reliures conservées dans les collections institutionnelles et auxquelles une origine humaine est attribuée. La technique retenue pour authentifier les livres est l'empreinte peptidique massique (en) (en anglais, Peptide Mass Fingerprinting, abrégé en PMF). En date de mai 2019, sur les 50 volumes potentiels identifiés par l'équipe du projet, 31 ont été testés : 18 d'entre eux se sont révélés être effectivement recouverts de cuir humain.
+</t>
         </is>
       </c>
     </row>
